--- a/Pauta Parlo (Linea 1).xlsx
+++ b/Pauta Parlo (Linea 1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Nelson/Documents/REACT/evaluacion3/Proyecto-Evaluacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3D6027-A328-1747-8913-00C7A035CCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8647BE2D-92CD-B644-8892-4A1CF47A660A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="0" windowWidth="25720" windowHeight="18660" xr2:uid="{EBE3E73A-F0FB-4C1E-B847-9E1076CFD6E1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{EBE3E73A-F0FB-4C1E-B847-9E1076CFD6E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato Parlo" sheetId="7" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="215">
   <si>
     <t>BLOQUES 
 DE EVALUACIÓN</t>
@@ -3299,6 +3299,15 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>QUIEBRE</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>SI</t>
   </si>
 </sst>
 </file>
@@ -4265,7 +4274,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4618,6 +4627,26 @@
     <xf numFmtId="0" fontId="60" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="12" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="11" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4627,6 +4656,18 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="12" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="12" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4636,6 +4677,12 @@
     <xf numFmtId="9" fontId="12" fillId="6" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4651,22 +4698,37 @@
     <xf numFmtId="0" fontId="25" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4678,15 +4740,9 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4696,35 +4752,44 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4735,44 +4800,56 @@
     <xf numFmtId="0" fontId="49" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="20" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4780,54 +4857,6 @@
     <xf numFmtId="0" fontId="71" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4863,27 +4892,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="12" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="11" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5316,47 +5324,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC3EB99-ACB9-1B49-A13C-C4B026739EFC}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" style="212" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="129" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="208" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="211" t="s">
+    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="128" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="211" t="s">
+      <c r="B1" s="128" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="206" t="s">
+      <c r="C1" s="124" t="s">
         <v>189</v>
       </c>
-      <c r="D1" s="206" t="s">
+      <c r="D1" s="124" t="s">
         <v>190</v>
       </c>
-      <c r="E1" s="207" t="s">
+      <c r="E1" s="125" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="207" t="s">
+      <c r="F1" s="125" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="125" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="103" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="212" t="s">
+      <c r="B2" s="129" t="s">
         <v>157</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -5368,15 +5379,18 @@
       <c r="E2" s="8">
         <v>0.06</v>
       </c>
-      <c r="F2" s="213">
+      <c r="F2" s="130">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="157" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="157" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="212" t="s">
+      <c r="B3" s="129" t="s">
         <v>157</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -5388,15 +5402,18 @@
       <c r="E3" s="8">
         <v>0.04</v>
       </c>
-      <c r="F3" s="213">
+      <c r="F3" s="130">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="212" t="s">
+      <c r="B4" s="129" t="s">
         <v>157</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -5408,15 +5425,18 @@
       <c r="E4" s="8">
         <v>0.1</v>
       </c>
-      <c r="F4" s="213">
+      <c r="F4" s="130">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="129" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="212" t="s">
+      <c r="B5" s="129" t="s">
         <v>193</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -5428,15 +5448,18 @@
       <c r="E5" s="12">
         <v>0.12</v>
       </c>
-      <c r="F5" s="209">
+      <c r="F5" s="126">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="130" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="130" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="212" t="s">
+      <c r="B6" s="129" t="s">
         <v>193</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -5448,15 +5471,18 @@
       <c r="E6" s="12">
         <v>0.08</v>
       </c>
-      <c r="F6" s="209">
+      <c r="F6" s="126">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="144" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="144" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="212" t="s">
+      <c r="B7" s="129" t="s">
         <v>193</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -5468,15 +5494,18 @@
       <c r="E7" s="12">
         <v>0.05</v>
       </c>
-      <c r="F7" s="209">
+      <c r="F7" s="126">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="157" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="157" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="212" t="s">
+      <c r="B8" s="129" t="s">
         <v>193</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -5488,15 +5517,18 @@
       <c r="E8" s="12">
         <v>0.05</v>
       </c>
-      <c r="F8" s="209">
+      <c r="F8" s="126">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="128" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="128" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="212" t="s">
+      <c r="B9" s="129" t="s">
         <v>208</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -5508,15 +5540,18 @@
       <c r="E9" s="8">
         <v>0.12</v>
       </c>
-      <c r="F9" s="210">
+      <c r="F9" s="127">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="263" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="263" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="212" t="s">
+      <c r="B10" s="129" t="s">
         <v>208</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -5528,15 +5563,18 @@
       <c r="E10" s="8">
         <v>0.1</v>
       </c>
-      <c r="F10" s="210">
+      <c r="F10" s="127">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="169" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="169" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="212" t="s">
+      <c r="B11" s="129" t="s">
         <v>208</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -5548,15 +5586,18 @@
       <c r="E11" s="8">
         <v>0.08</v>
       </c>
-      <c r="F11" s="210">
+      <c r="F11" s="127">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="229" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="229" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="212" t="s">
+      <c r="B12" s="129" t="s">
         <v>209</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -5568,15 +5609,18 @@
       <c r="E12" s="12">
         <v>0.06</v>
       </c>
-      <c r="F12" s="209">
+      <c r="F12" s="126">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="196" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="196" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="212" t="s">
+      <c r="B13" s="129" t="s">
         <v>209</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -5588,15 +5632,18 @@
       <c r="E13" s="12">
         <v>0.03</v>
       </c>
-      <c r="F13" s="209">
+      <c r="F13" s="126">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="157" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="157" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="212" t="s">
+      <c r="B14" s="129" t="s">
         <v>209</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -5608,15 +5655,18 @@
       <c r="E14" s="12">
         <v>0.03</v>
       </c>
-      <c r="F14" s="209">
+      <c r="F14" s="126">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="109" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="109" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="212" t="s">
+      <c r="B15" s="129" t="s">
         <v>209</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -5628,15 +5678,18 @@
       <c r="E15" s="12">
         <v>0.08</v>
       </c>
-      <c r="F15" s="209">
+      <c r="F15" s="126">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="74" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="74" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="212" t="s">
+      <c r="B16" s="129" t="s">
         <v>210</v>
       </c>
       <c r="C16" s="17" t="s">
@@ -5648,15 +5701,18 @@
       <c r="E16" s="19">
         <v>0.05</v>
       </c>
-      <c r="F16" s="214">
+      <c r="F16" s="131">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="74" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="74" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="212" t="s">
+      <c r="B17" s="129" t="s">
         <v>210</v>
       </c>
       <c r="C17" s="17" t="s">
@@ -5668,8 +5724,11 @@
       <c r="E17" s="21">
         <v>0.05</v>
       </c>
-      <c r="F17" s="214">
+      <c r="F17" s="131">
         <v>0.1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -5682,7 +5741,7 @@
   <dimension ref="B1:G31"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5715,7 +5774,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="133" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -5735,7 +5794,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="126"/>
+      <c r="B4" s="134"/>
       <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
@@ -5748,7 +5807,7 @@
       <c r="F4" s="136"/>
     </row>
     <row r="5" spans="2:7" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="126"/>
+      <c r="B5" s="134"/>
       <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
@@ -5761,7 +5820,7 @@
       <c r="F5" s="137"/>
     </row>
     <row r="6" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="133" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -5773,12 +5832,12 @@
       <c r="E6" s="12">
         <v>0.12</v>
       </c>
-      <c r="F6" s="127">
+      <c r="F6" s="139">
         <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="126"/>
+      <c r="B7" s="134"/>
       <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
@@ -5788,10 +5847,10 @@
       <c r="E7" s="12">
         <v>0.08</v>
       </c>
-      <c r="F7" s="128"/>
+      <c r="F7" s="140"/>
     </row>
     <row r="8" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="126"/>
+      <c r="B8" s="134"/>
       <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
@@ -5801,7 +5860,7 @@
       <c r="E8" s="12">
         <v>0.05</v>
       </c>
-      <c r="F8" s="128"/>
+      <c r="F8" s="140"/>
     </row>
     <row r="9" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="138"/>
@@ -5814,10 +5873,10 @@
       <c r="E9" s="12">
         <v>0.05</v>
       </c>
-      <c r="F9" s="129"/>
+      <c r="F9" s="141"/>
     </row>
     <row r="10" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="139" t="s">
+      <c r="B10" s="142" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -5834,7 +5893,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="140"/>
+      <c r="B11" s="143"/>
       <c r="C11" s="6" t="s">
         <v>25</v>
       </c>
@@ -5850,7 +5909,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="140"/>
+      <c r="B12" s="143"/>
       <c r="C12" s="6" t="s">
         <v>27</v>
       </c>
@@ -5863,7 +5922,7 @@
       <c r="F12" s="137"/>
     </row>
     <row r="13" spans="2:7" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="125" t="s">
+      <c r="B13" s="133" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -5875,12 +5934,12 @@
       <c r="E13" s="12">
         <v>0.06</v>
       </c>
-      <c r="F13" s="127">
+      <c r="F13" s="139">
         <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="38" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="126"/>
+      <c r="B14" s="134"/>
       <c r="C14" s="6" t="s">
         <v>32</v>
       </c>
@@ -5890,10 +5949,10 @@
       <c r="E14" s="12">
         <v>0.03</v>
       </c>
-      <c r="F14" s="128"/>
+      <c r="F14" s="140"/>
     </row>
     <row r="15" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="126"/>
+      <c r="B15" s="134"/>
       <c r="C15" s="6" t="s">
         <v>34</v>
       </c>
@@ -5903,10 +5962,10 @@
       <c r="E15" s="12">
         <v>0.03</v>
       </c>
-      <c r="F15" s="128"/>
+      <c r="F15" s="140"/>
     </row>
     <row r="16" spans="2:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="126"/>
+      <c r="B16" s="134"/>
       <c r="C16" s="6" t="s">
         <v>36</v>
       </c>
@@ -5916,7 +5975,7 @@
       <c r="E16" s="12">
         <v>0.08</v>
       </c>
-      <c r="F16" s="129"/>
+      <c r="F16" s="141"/>
       <c r="G16" s="9" t="s">
         <v>8</v>
       </c>
@@ -5929,7 +5988,7 @@
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="130" t="s">
+      <c r="B18" s="144" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="17" t="s">
@@ -5941,12 +6000,12 @@
       <c r="E18" s="19">
         <v>0.05</v>
       </c>
-      <c r="F18" s="132">
+      <c r="F18" s="146">
         <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="131"/>
+      <c r="B19" s="145"/>
       <c r="C19" s="17" t="s">
         <v>41</v>
       </c>
@@ -5956,7 +6015,7 @@
       <c r="E19" s="21">
         <v>0.05</v>
       </c>
-      <c r="F19" s="133"/>
+      <c r="F19" s="147"/>
     </row>
     <row r="20" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5977,11 +6036,11 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="134" t="s">
+      <c r="B23" s="148" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134" t="s">
+      <c r="C23" s="148"/>
+      <c r="D23" s="148" t="s">
         <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -5992,11 +6051,11 @@
       </c>
     </row>
     <row r="24" spans="2:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="124" t="s">
+      <c r="B24" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="124"/>
-      <c r="D24" s="124"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="132"/>
       <c r="E24" s="2" t="s">
         <v>47</v>
       </c>
@@ -6005,11 +6064,11 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B25" s="124" t="s">
+      <c r="B25" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="124"/>
-      <c r="D25" s="124"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="132"/>
       <c r="E25" s="2" t="s">
         <v>47</v>
       </c>
@@ -6018,11 +6077,11 @@
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="124" t="s">
+      <c r="B26" s="132" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="124"/>
-      <c r="D26" s="124"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
       <c r="E26" s="2" t="s">
         <v>47</v>
       </c>
@@ -6031,11 +6090,11 @@
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B27" s="124" t="s">
+      <c r="B27" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="124"/>
-      <c r="D27" s="124"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="132"/>
       <c r="E27" s="2" t="s">
         <v>47</v>
       </c>
@@ -6044,11 +6103,11 @@
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="124" t="s">
+      <c r="B28" s="132" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="124"/>
-      <c r="D28" s="124"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="132"/>
       <c r="E28" s="2" t="s">
         <v>47</v>
       </c>
@@ -6057,11 +6116,11 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="124" t="s">
+      <c r="B29" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="124"/>
-      <c r="D29" s="124"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
       <c r="E29" s="2" t="s">
         <v>47</v>
       </c>
@@ -6070,21 +6129,28 @@
       </c>
     </row>
     <row r="30" spans="2:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="124" t="s">
+      <c r="B30" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="132"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="124" t="s">
+      <c r="B31" s="132" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="124"/>
-      <c r="D31" s="124"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="F3:F5"/>
@@ -6097,13 +6163,6 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6149,7 +6208,7 @@
       <c r="G2" s="27"/>
     </row>
     <row r="3" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="160" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="43" t="s">
@@ -6161,7 +6220,7 @@
       <c r="E3" s="41">
         <v>5</v>
       </c>
-      <c r="F3" s="144">
+      <c r="F3" s="154">
         <v>25</v>
       </c>
       <c r="G3" s="44" t="s">
@@ -6169,7 +6228,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="66" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="142"/>
+      <c r="B4" s="161"/>
       <c r="C4" s="43" t="s">
         <v>97</v>
       </c>
@@ -6179,11 +6238,11 @@
       <c r="E4" s="41">
         <v>5</v>
       </c>
-      <c r="F4" s="145"/>
+      <c r="F4" s="163"/>
       <c r="G4" s="27"/>
     </row>
     <row r="5" spans="2:7" ht="66" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="143"/>
+      <c r="B5" s="162"/>
       <c r="C5" s="43" t="s">
         <v>95</v>
       </c>
@@ -6193,11 +6252,11 @@
       <c r="E5" s="41">
         <v>15</v>
       </c>
-      <c r="F5" s="146"/>
+      <c r="F5" s="155"/>
       <c r="G5" s="27"/>
     </row>
     <row r="6" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="147" t="s">
+      <c r="B6" s="164" t="s">
         <v>93</v>
       </c>
       <c r="C6" s="43" t="s">
@@ -6215,7 +6274,7 @@
       <c r="G6" s="27"/>
     </row>
     <row r="7" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="148"/>
+      <c r="B7" s="165"/>
       <c r="C7" s="43" t="s">
         <v>90</v>
       </c>
@@ -6225,11 +6284,11 @@
       <c r="E7" s="45">
         <v>10</v>
       </c>
-      <c r="F7" s="151"/>
+      <c r="F7" s="167"/>
       <c r="G7" s="27"/>
     </row>
     <row r="8" spans="2:7" ht="40" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="149"/>
+      <c r="B8" s="166"/>
       <c r="C8" s="43" t="s">
         <v>88</v>
       </c>
@@ -6239,11 +6298,11 @@
       <c r="E8" s="45">
         <v>5</v>
       </c>
-      <c r="F8" s="152"/>
+      <c r="F8" s="151"/>
       <c r="G8" s="27"/>
     </row>
     <row r="9" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="147" t="s">
+      <c r="B9" s="164" t="s">
         <v>86</v>
       </c>
       <c r="C9" s="43" t="s">
@@ -6255,13 +6314,13 @@
       <c r="E9" s="41">
         <v>4</v>
       </c>
-      <c r="F9" s="144">
+      <c r="F9" s="154">
         <v>21</v>
       </c>
       <c r="G9" s="27"/>
     </row>
     <row r="10" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="148"/>
+      <c r="B10" s="165"/>
       <c r="C10" s="43" t="s">
         <v>83</v>
       </c>
@@ -6271,11 +6330,11 @@
       <c r="E10" s="41">
         <v>5</v>
       </c>
-      <c r="F10" s="145"/>
+      <c r="F10" s="163"/>
       <c r="G10" s="27"/>
     </row>
     <row r="11" spans="2:7" ht="40" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="148"/>
+      <c r="B11" s="165"/>
       <c r="C11" s="43" t="s">
         <v>81</v>
       </c>
@@ -6285,11 +6344,11 @@
       <c r="E11" s="41">
         <v>6</v>
       </c>
-      <c r="F11" s="145"/>
+      <c r="F11" s="163"/>
       <c r="G11" s="27"/>
     </row>
     <row r="12" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="149"/>
+      <c r="B12" s="166"/>
       <c r="C12" s="43" t="s">
         <v>79</v>
       </c>
@@ -6299,7 +6358,7 @@
       <c r="E12" s="41">
         <v>6</v>
       </c>
-      <c r="F12" s="146"/>
+      <c r="F12" s="155"/>
       <c r="G12" s="27"/>
     </row>
     <row r="13" spans="2:7" ht="66" thickBot="1" x14ac:dyDescent="0.25">
@@ -6333,11 +6392,11 @@
       <c r="E14" s="45">
         <v>15</v>
       </c>
-      <c r="F14" s="152"/>
+      <c r="F14" s="151"/>
       <c r="G14" s="27"/>
     </row>
     <row r="15" spans="2:7" ht="66" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="153" t="s">
+      <c r="B15" s="152" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="43" t="s">
@@ -6349,7 +6408,7 @@
       <c r="E15" s="41">
         <v>5</v>
       </c>
-      <c r="F15" s="144">
+      <c r="F15" s="154">
         <v>9</v>
       </c>
       <c r="G15" s="44" t="s">
@@ -6357,7 +6416,7 @@
       </c>
     </row>
     <row r="16" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="154"/>
+      <c r="B16" s="153"/>
       <c r="C16" s="43" t="s">
         <v>70</v>
       </c>
@@ -6367,7 +6426,7 @@
       <c r="E16" s="41">
         <v>4</v>
       </c>
-      <c r="F16" s="146"/>
+      <c r="F16" s="155"/>
       <c r="G16" s="40"/>
     </row>
     <row r="17" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6379,7 +6438,7 @@
       <c r="G17" s="27"/>
     </row>
     <row r="18" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="155" t="s">
+      <c r="B18" s="156" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="36" t="s">
@@ -6391,13 +6450,13 @@
       <c r="E18" s="38">
         <v>5</v>
       </c>
-      <c r="F18" s="157">
+      <c r="F18" s="158">
         <v>10</v>
       </c>
       <c r="G18" s="27"/>
     </row>
     <row r="19" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="156"/>
+      <c r="B19" s="157"/>
       <c r="C19" s="36" t="s">
         <v>41</v>
       </c>
@@ -6407,7 +6466,7 @@
       <c r="E19" s="38">
         <v>5</v>
       </c>
-      <c r="F19" s="158"/>
+      <c r="F19" s="159"/>
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6459,11 +6518,11 @@
       <c r="N22" s="29"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" s="159" t="s">
+      <c r="B23" s="149" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
+      <c r="C23" s="149"/>
+      <c r="D23" s="149"/>
       <c r="E23" s="29"/>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
@@ -6754,18 +6813,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="F9:F12"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="F18:F19"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="F9:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6828,7 +6887,7 @@
       <c r="G3" s="70"/>
     </row>
     <row r="4" spans="2:7" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="167" t="s">
+      <c r="B4" s="168" t="s">
         <v>128</v>
       </c>
       <c r="C4" s="43" t="s">
@@ -6843,12 +6902,12 @@
       <c r="F4" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="169" t="s">
+      <c r="G4" s="170" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="168"/>
+      <c r="B5" s="169"/>
       <c r="C5" s="43" t="s">
         <v>131</v>
       </c>
@@ -6861,10 +6920,10 @@
       <c r="F5" s="73">
         <v>15</v>
       </c>
-      <c r="G5" s="169"/>
+      <c r="G5" s="170"/>
     </row>
     <row r="6" spans="2:7" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="168"/>
+      <c r="B6" s="169"/>
       <c r="C6" s="43" t="s">
         <v>72</v>
       </c>
@@ -6877,10 +6936,10 @@
       <c r="F6" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="169"/>
+      <c r="G6" s="170"/>
     </row>
     <row r="7" spans="2:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="170" t="s">
+      <c r="B7" s="171" t="s">
         <v>93</v>
       </c>
       <c r="C7" s="43" t="s">
@@ -6892,13 +6951,13 @@
       <c r="E7" s="69">
         <v>10</v>
       </c>
-      <c r="F7" s="163">
+      <c r="F7" s="174">
         <v>25</v>
       </c>
       <c r="G7" s="70"/>
     </row>
     <row r="8" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="171"/>
+      <c r="B8" s="172"/>
       <c r="C8" s="43" t="s">
         <v>90</v>
       </c>
@@ -6908,11 +6967,11 @@
       <c r="E8" s="69">
         <v>10</v>
       </c>
-      <c r="F8" s="164"/>
+      <c r="F8" s="175"/>
       <c r="G8" s="70"/>
     </row>
     <row r="9" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="172"/>
+      <c r="B9" s="173"/>
       <c r="C9" s="43" t="s">
         <v>88</v>
       </c>
@@ -6922,11 +6981,11 @@
       <c r="E9" s="69">
         <v>5</v>
       </c>
-      <c r="F9" s="165"/>
+      <c r="F9" s="176"/>
       <c r="G9" s="70"/>
     </row>
     <row r="10" spans="2:7" ht="81.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="171" t="s">
+      <c r="B10" s="172" t="s">
         <v>77</v>
       </c>
       <c r="C10" s="43" t="s">
@@ -6938,13 +6997,13 @@
       <c r="E10" s="77">
         <v>8</v>
       </c>
-      <c r="F10" s="173">
+      <c r="F10" s="177">
         <v>36</v>
       </c>
       <c r="G10" s="70"/>
     </row>
     <row r="11" spans="2:7" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="171"/>
+      <c r="B11" s="172"/>
       <c r="C11" s="43" t="s">
         <v>139</v>
       </c>
@@ -6954,11 +7013,11 @@
       <c r="E11" s="77">
         <v>8</v>
       </c>
-      <c r="F11" s="174"/>
+      <c r="F11" s="178"/>
       <c r="G11" s="70"/>
     </row>
     <row r="12" spans="2:7" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="171"/>
+      <c r="B12" s="172"/>
       <c r="C12" s="43" t="s">
         <v>141</v>
       </c>
@@ -6968,11 +7027,11 @@
       <c r="E12" s="77">
         <v>15</v>
       </c>
-      <c r="F12" s="174"/>
+      <c r="F12" s="178"/>
       <c r="G12" s="70"/>
     </row>
     <row r="13" spans="2:7" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="172"/>
+      <c r="B13" s="173"/>
       <c r="C13" s="43" t="s">
         <v>30</v>
       </c>
@@ -6982,11 +7041,11 @@
       <c r="E13" s="77">
         <v>5</v>
       </c>
-      <c r="F13" s="175"/>
+      <c r="F13" s="179"/>
       <c r="G13" s="70"/>
     </row>
     <row r="14" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="161" t="s">
+      <c r="B14" s="181" t="s">
         <v>86</v>
       </c>
       <c r="C14" s="43" t="s">
@@ -6998,13 +7057,13 @@
       <c r="E14" s="69">
         <v>5</v>
       </c>
-      <c r="F14" s="163">
+      <c r="F14" s="174">
         <v>15</v>
       </c>
       <c r="G14" s="70"/>
     </row>
     <row r="15" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="161"/>
+      <c r="B15" s="181"/>
       <c r="C15" s="43" t="s">
         <v>145</v>
       </c>
@@ -7014,11 +7073,11 @@
       <c r="E15" s="69">
         <v>5</v>
       </c>
-      <c r="F15" s="164"/>
+      <c r="F15" s="175"/>
       <c r="G15" s="70"/>
     </row>
     <row r="16" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="162"/>
+      <c r="B16" s="182"/>
       <c r="C16" s="43" t="s">
         <v>79</v>
       </c>
@@ -7028,7 +7087,7 @@
       <c r="E16" s="69">
         <v>5</v>
       </c>
-      <c r="F16" s="165"/>
+      <c r="F16" s="176"/>
       <c r="G16" s="70"/>
     </row>
     <row r="17" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -7084,62 +7143,56 @@
       <c r="G20" s="70"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="159" t="s">
+      <c r="B21" s="149" t="s">
         <v>150</v>
       </c>
-      <c r="C21" s="159"/>
-      <c r="D21" s="159"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="149"/>
     </row>
     <row r="22" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="166" t="s">
+      <c r="B22" s="183" t="s">
         <v>151</v>
       </c>
-      <c r="C22" s="166"/>
-      <c r="D22" s="166"/>
+      <c r="C22" s="183"/>
+      <c r="D22" s="183"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="160" t="s">
+      <c r="B23" s="180" t="s">
         <v>152</v>
       </c>
-      <c r="C23" s="160"/>
-      <c r="D23" s="160"/>
+      <c r="C23" s="180"/>
+      <c r="D23" s="180"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="160" t="s">
+      <c r="B24" s="180" t="s">
         <v>153</v>
       </c>
-      <c r="C24" s="160"/>
-      <c r="D24" s="160"/>
+      <c r="C24" s="180"/>
+      <c r="D24" s="180"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="160" t="s">
+      <c r="B25" s="180" t="s">
         <v>154</v>
       </c>
-      <c r="C25" s="160"/>
-      <c r="D25" s="160"/>
+      <c r="C25" s="180"/>
+      <c r="D25" s="180"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="160" t="s">
+      <c r="B26" s="180" t="s">
         <v>155</v>
       </c>
-      <c r="C26" s="160"/>
-      <c r="D26" s="160"/>
+      <c r="C26" s="180"/>
+      <c r="D26" s="180"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="160" t="s">
+      <c r="B27" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="C27" s="160"/>
-      <c r="D27" s="160"/>
+      <c r="C27" s="180"/>
+      <c r="D27" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="F10:F13"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
@@ -7149,6 +7202,12 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="F10:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7209,7 +7268,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="24.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="178" t="s">
+      <c r="B4" s="184" t="s">
         <v>174</v>
       </c>
       <c r="C4" s="43" t="s">
@@ -7221,15 +7280,15 @@
       <c r="E4" s="96">
         <v>7</v>
       </c>
-      <c r="F4" s="185">
+      <c r="F4" s="186">
         <v>15</v>
       </c>
-      <c r="G4" s="169" t="s">
+      <c r="G4" s="170" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="79" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="184"/>
+      <c r="B5" s="185"/>
       <c r="C5" s="97" t="s">
         <v>72</v>
       </c>
@@ -7239,11 +7298,11 @@
       <c r="E5" s="98">
         <v>8</v>
       </c>
-      <c r="F5" s="186"/>
-      <c r="G5" s="169"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="170"/>
     </row>
     <row r="6" spans="2:7" ht="40" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="167" t="s">
+      <c r="B6" s="168" t="s">
         <v>177</v>
       </c>
       <c r="C6" s="99" t="s">
@@ -7255,12 +7314,12 @@
       <c r="E6" s="101">
         <v>10</v>
       </c>
-      <c r="F6" s="181">
+      <c r="F6" s="189">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="168"/>
+      <c r="B7" s="169"/>
       <c r="C7" s="102" t="s">
         <v>90</v>
       </c>
@@ -7270,10 +7329,10 @@
       <c r="E7" s="101">
         <v>10</v>
       </c>
-      <c r="F7" s="182"/>
+      <c r="F7" s="190"/>
     </row>
     <row r="8" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="187"/>
+      <c r="B8" s="188"/>
       <c r="C8" s="102" t="s">
         <v>88</v>
       </c>
@@ -7283,10 +7342,10 @@
       <c r="E8" s="101">
         <v>5</v>
       </c>
-      <c r="F8" s="183"/>
+      <c r="F8" s="191"/>
     </row>
     <row r="9" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="188" t="s">
+      <c r="B9" s="192" t="s">
         <v>178</v>
       </c>
       <c r="C9" s="97" t="s">
@@ -7295,26 +7354,26 @@
       <c r="D9" s="95" t="s">
         <v>180</v>
       </c>
-      <c r="E9" s="191">
+      <c r="E9" s="195">
         <v>15</v>
       </c>
-      <c r="F9" s="191">
+      <c r="F9" s="195">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="92" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="189"/>
+      <c r="B10" s="193"/>
       <c r="C10" s="97" t="s">
         <v>181</v>
       </c>
       <c r="D10" s="95" t="s">
         <v>182</v>
       </c>
-      <c r="E10" s="192"/>
-      <c r="F10" s="193"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="197"/>
     </row>
     <row r="11" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="189"/>
+      <c r="B11" s="193"/>
       <c r="C11" s="43" t="s">
         <v>141</v>
       </c>
@@ -7324,10 +7383,10 @@
       <c r="E11" s="104">
         <v>15</v>
       </c>
-      <c r="F11" s="193"/>
+      <c r="F11" s="197"/>
     </row>
     <row r="12" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="190"/>
+      <c r="B12" s="194"/>
       <c r="C12" s="43" t="s">
         <v>30</v>
       </c>
@@ -7337,10 +7396,10 @@
       <c r="E12" s="96">
         <v>5</v>
       </c>
-      <c r="F12" s="192"/>
+      <c r="F12" s="196"/>
     </row>
     <row r="13" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="178" t="s">
+      <c r="B13" s="184" t="s">
         <v>86</v>
       </c>
       <c r="C13" s="102" t="s">
@@ -7352,12 +7411,12 @@
       <c r="E13" s="105">
         <v>4</v>
       </c>
-      <c r="F13" s="181">
+      <c r="F13" s="189">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="179"/>
+      <c r="B14" s="198"/>
       <c r="C14" s="102" t="s">
         <v>83</v>
       </c>
@@ -7367,10 +7426,10 @@
       <c r="E14" s="105">
         <v>4</v>
       </c>
-      <c r="F14" s="182"/>
+      <c r="F14" s="190"/>
     </row>
     <row r="15" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="179"/>
+      <c r="B15" s="198"/>
       <c r="C15" s="102" t="s">
         <v>81</v>
       </c>
@@ -7380,10 +7439,10 @@
       <c r="E15" s="105">
         <v>4</v>
       </c>
-      <c r="F15" s="182"/>
+      <c r="F15" s="190"/>
     </row>
     <row r="16" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="180"/>
+      <c r="B16" s="199"/>
       <c r="C16" s="99" t="s">
         <v>79</v>
       </c>
@@ -7393,7 +7452,7 @@
       <c r="E16" s="105">
         <v>4</v>
       </c>
-      <c r="F16" s="183"/>
+      <c r="F16" s="191"/>
     </row>
     <row r="17" spans="2:9" ht="92" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="107" t="s">
@@ -7465,88 +7524,88 @@
       <c r="F22" s="111"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="159" t="s">
+      <c r="B23" s="149" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
+      <c r="C23" s="149"/>
+      <c r="D23" s="149"/>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
     </row>
     <row r="24" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="166" t="s">
+      <c r="B24" s="183" t="s">
         <v>151</v>
       </c>
-      <c r="C24" s="166"/>
-      <c r="D24" s="166"/>
+      <c r="C24" s="183"/>
+      <c r="D24" s="183"/>
       <c r="E24" s="115"/>
       <c r="F24" s="115"/>
       <c r="G24" s="116"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="160" t="s">
+      <c r="B25" s="180" t="s">
         <v>188</v>
       </c>
-      <c r="C25" s="160"/>
-      <c r="D25" s="160"/>
+      <c r="C25" s="180"/>
+      <c r="D25" s="180"/>
       <c r="E25" s="110"/>
       <c r="F25" s="111"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="160" t="s">
+      <c r="B26" s="180" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="160"/>
-      <c r="D26" s="160"/>
+      <c r="C26" s="180"/>
+      <c r="D26" s="180"/>
       <c r="E26" s="110"/>
       <c r="F26" s="111"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="160" t="s">
+      <c r="B27" s="180" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="160"/>
-      <c r="D27" s="160"/>
+      <c r="C27" s="180"/>
+      <c r="D27" s="180"/>
       <c r="E27" s="110"/>
       <c r="F27" s="111"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="160" t="s">
+      <c r="B28" s="180" t="s">
         <v>155</v>
       </c>
-      <c r="C28" s="160"/>
-      <c r="D28" s="160"/>
+      <c r="C28" s="180"/>
+      <c r="D28" s="180"/>
       <c r="E28" s="110"/>
       <c r="F28" s="111"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="160" t="s">
+      <c r="B29" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="C29" s="160"/>
-      <c r="D29" s="160"/>
+      <c r="C29" s="180"/>
+      <c r="D29" s="180"/>
       <c r="E29" s="110"/>
       <c r="F29" s="111"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="176"/>
-      <c r="C30" s="176"/>
-      <c r="D30" s="176"/>
-      <c r="E30" s="176"/>
-      <c r="F30" s="176"/>
-      <c r="G30" s="176"/>
-      <c r="H30" s="176"/>
-      <c r="I30" s="176"/>
+      <c r="B30" s="200"/>
+      <c r="C30" s="200"/>
+      <c r="D30" s="200"/>
+      <c r="E30" s="200"/>
+      <c r="F30" s="200"/>
+      <c r="G30" s="200"/>
+      <c r="H30" s="200"/>
+      <c r="I30" s="200"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B31" s="177"/>
-      <c r="C31" s="177"/>
-      <c r="D31" s="177"/>
-      <c r="E31" s="177"/>
-      <c r="F31" s="177"/>
-      <c r="G31" s="177"/>
-      <c r="H31" s="177"/>
-      <c r="I31" s="177"/>
+      <c r="B31" s="201"/>
+      <c r="C31" s="201"/>
+      <c r="D31" s="201"/>
+      <c r="E31" s="201"/>
+      <c r="F31" s="201"/>
+      <c r="G31" s="201"/>
+      <c r="H31" s="201"/>
+      <c r="I31" s="201"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="117"/>
@@ -7741,6 +7800,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="F4:F5"/>
@@ -7755,11 +7819,6 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7810,7 +7869,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="194" t="s">
+      <c r="B3" s="202" t="s">
         <v>157</v>
       </c>
       <c r="C3" s="57" t="s">
@@ -7822,7 +7881,7 @@
       <c r="E3" s="59">
         <v>0.06</v>
       </c>
-      <c r="F3" s="197">
+      <c r="F3" s="205">
         <v>0.2</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -7830,7 +7889,7 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="195"/>
+      <c r="B4" s="203"/>
       <c r="C4" s="57" t="s">
         <v>9</v>
       </c>
@@ -7840,10 +7899,10 @@
       <c r="E4" s="59">
         <v>0.04</v>
       </c>
-      <c r="F4" s="198"/>
+      <c r="F4" s="206"/>
     </row>
     <row r="5" spans="2:7" ht="187" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="196"/>
+      <c r="B5" s="204"/>
       <c r="C5" s="57" t="s">
         <v>95</v>
       </c>
@@ -7853,10 +7912,10 @@
       <c r="E5" s="59">
         <v>0.1</v>
       </c>
-      <c r="F5" s="199"/>
+      <c r="F5" s="207"/>
     </row>
     <row r="6" spans="2:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="194" t="s">
+      <c r="B6" s="202" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="57" t="s">
@@ -7873,7 +7932,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="195"/>
+      <c r="B7" s="203"/>
       <c r="C7" s="57" t="s">
         <v>16</v>
       </c>
@@ -7886,7 +7945,7 @@
       <c r="F7" s="12"/>
     </row>
     <row r="8" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="195"/>
+      <c r="B8" s="203"/>
       <c r="C8" s="57" t="s">
         <v>18</v>
       </c>
@@ -7899,7 +7958,7 @@
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="2:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="196"/>
+      <c r="B9" s="204"/>
       <c r="C9" s="57" t="s">
         <v>20</v>
       </c>
@@ -7912,7 +7971,7 @@
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="2:7" ht="27.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="200" t="s">
+      <c r="B10" s="208" t="s">
         <v>113</v>
       </c>
       <c r="C10" s="57" t="s">
@@ -7924,12 +7983,12 @@
       <c r="E10" s="59">
         <v>0.12</v>
       </c>
-      <c r="F10" s="197">
+      <c r="F10" s="205">
         <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="201"/>
+      <c r="B11" s="209"/>
       <c r="C11" s="81" t="s">
         <v>163</v>
       </c>
@@ -7939,13 +7998,13 @@
       <c r="E11" s="59">
         <v>0.1</v>
       </c>
-      <c r="F11" s="198"/>
+      <c r="F11" s="206"/>
       <c r="G11" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="202"/>
+      <c r="B12" s="210"/>
       <c r="C12" s="57" t="s">
         <v>165</v>
       </c>
@@ -7955,10 +8014,10 @@
       <c r="E12" s="59">
         <v>0.08</v>
       </c>
-      <c r="F12" s="199"/>
+      <c r="F12" s="207"/>
     </row>
     <row r="13" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="194" t="s">
+      <c r="B13" s="202" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="57" t="s">
@@ -7970,12 +8029,12 @@
       <c r="E13" s="12">
         <v>0.06</v>
       </c>
-      <c r="F13" s="127">
+      <c r="F13" s="139">
         <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="195"/>
+      <c r="B14" s="203"/>
       <c r="C14" s="57" t="s">
         <v>32</v>
       </c>
@@ -7985,10 +8044,10 @@
       <c r="E14" s="12">
         <v>0.03</v>
       </c>
-      <c r="F14" s="128"/>
+      <c r="F14" s="140"/>
     </row>
     <row r="15" spans="2:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="195"/>
+      <c r="B15" s="203"/>
       <c r="C15" s="57" t="s">
         <v>34</v>
       </c>
@@ -7998,10 +8057,10 @@
       <c r="E15" s="12">
         <v>0.03</v>
       </c>
-      <c r="F15" s="128"/>
+      <c r="F15" s="140"/>
     </row>
     <row r="16" spans="2:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="196"/>
+      <c r="B16" s="204"/>
       <c r="C16" s="57" t="s">
         <v>36</v>
       </c>
@@ -8011,7 +8070,7 @@
       <c r="E16" s="12">
         <v>0.08</v>
       </c>
-      <c r="F16" s="129"/>
+      <c r="F16" s="141"/>
       <c r="G16" s="9" t="s">
         <v>8</v>
       </c>
@@ -8064,11 +8123,11 @@
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" s="134" t="s">
+      <c r="B22" s="148" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134" t="s">
+      <c r="C22" s="148"/>
+      <c r="D22" s="148" t="s">
         <v>47</v>
       </c>
     </row>
@@ -8175,7 +8234,7 @@
       <c r="G2" s="54"/>
     </row>
     <row r="3" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="203" t="s">
+      <c r="B3" s="211" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="57" t="s">
@@ -8187,7 +8246,7 @@
       <c r="E3" s="59">
         <v>0.06</v>
       </c>
-      <c r="F3" s="197">
+      <c r="F3" s="205">
         <v>0.2</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -8195,7 +8254,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="204"/>
+      <c r="B4" s="212"/>
       <c r="C4" s="57" t="s">
         <v>9</v>
       </c>
@@ -8205,10 +8264,10 @@
       <c r="E4" s="59">
         <v>0.04</v>
       </c>
-      <c r="F4" s="198"/>
+      <c r="F4" s="206"/>
     </row>
     <row r="5" spans="1:7" ht="82" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="205"/>
+      <c r="B5" s="213"/>
       <c r="C5" s="57" t="s">
         <v>11</v>
       </c>
@@ -8218,10 +8277,10 @@
       <c r="E5" s="59">
         <v>0.1</v>
       </c>
-      <c r="F5" s="199"/>
+      <c r="F5" s="207"/>
     </row>
     <row r="6" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="203" t="s">
+      <c r="B6" s="211" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="57" t="s">
@@ -8233,12 +8292,12 @@
       <c r="E6" s="12">
         <v>0.12</v>
       </c>
-      <c r="F6" s="127">
+      <c r="F6" s="139">
         <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="204"/>
+      <c r="B7" s="212"/>
       <c r="C7" s="57" t="s">
         <v>16</v>
       </c>
@@ -8248,10 +8307,10 @@
       <c r="E7" s="12">
         <v>0.09</v>
       </c>
-      <c r="F7" s="128"/>
+      <c r="F7" s="140"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="204"/>
+      <c r="B8" s="212"/>
       <c r="C8" s="57" t="s">
         <v>18</v>
       </c>
@@ -8261,10 +8320,10 @@
       <c r="E8" s="12">
         <v>0.05</v>
       </c>
-      <c r="F8" s="128"/>
+      <c r="F8" s="140"/>
     </row>
     <row r="9" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="205"/>
+      <c r="B9" s="213"/>
       <c r="C9" s="57" t="s">
         <v>20</v>
       </c>
@@ -8274,10 +8333,10 @@
       <c r="E9" s="12">
         <v>0.04</v>
       </c>
-      <c r="F9" s="129"/>
+      <c r="F9" s="141"/>
     </row>
     <row r="10" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="203" t="s">
+      <c r="B10" s="211" t="s">
         <v>113</v>
       </c>
       <c r="C10" s="57" t="s">
@@ -8289,12 +8348,12 @@
       <c r="E10" s="59">
         <v>0.1</v>
       </c>
-      <c r="F10" s="197">
+      <c r="F10" s="205">
         <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="50.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="204"/>
+      <c r="B11" s="212"/>
       <c r="C11" s="57" t="s">
         <v>115</v>
       </c>
@@ -8304,13 +8363,13 @@
       <c r="E11" s="59">
         <v>0.1</v>
       </c>
-      <c r="F11" s="198"/>
+      <c r="F11" s="206"/>
       <c r="G11" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="205"/>
+      <c r="B12" s="213"/>
       <c r="C12" s="57" t="s">
         <v>117</v>
       </c>
@@ -8320,10 +8379,10 @@
       <c r="E12" s="59">
         <v>0.1</v>
       </c>
-      <c r="F12" s="199"/>
+      <c r="F12" s="207"/>
     </row>
     <row r="13" spans="1:7" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="203" t="s">
+      <c r="B13" s="211" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="57" t="s">
@@ -8335,12 +8394,12 @@
       <c r="E13" s="12">
         <v>0.08</v>
       </c>
-      <c r="F13" s="127">
+      <c r="F13" s="139">
         <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="204"/>
+      <c r="B14" s="212"/>
       <c r="C14" s="57" t="s">
         <v>32</v>
       </c>
@@ -8350,10 +8409,10 @@
       <c r="E14" s="12">
         <v>0.02</v>
       </c>
-      <c r="F14" s="128"/>
+      <c r="F14" s="140"/>
     </row>
     <row r="15" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="204"/>
+      <c r="B15" s="212"/>
       <c r="C15" s="57" t="s">
         <v>34</v>
       </c>
@@ -8363,10 +8422,10 @@
       <c r="E15" s="12">
         <v>0.02</v>
       </c>
-      <c r="F15" s="128"/>
+      <c r="F15" s="140"/>
     </row>
     <row r="16" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="204"/>
+      <c r="B16" s="212"/>
       <c r="C16" s="57" t="s">
         <v>36</v>
       </c>
@@ -8376,7 +8435,7 @@
       <c r="E16" s="12">
         <v>0.08</v>
       </c>
-      <c r="F16" s="129"/>
+      <c r="F16" s="141"/>
       <c r="G16" s="9" t="s">
         <v>8</v>
       </c>
@@ -8412,11 +8471,11 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="2:6" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="134" t="s">
+      <c r="B20" s="148" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="134"/>
-      <c r="D20" s="134" t="s">
+      <c r="C20" s="148"/>
+      <c r="D20" s="148" t="s">
         <v>47</v>
       </c>
       <c r="E20" s="2"/>
